--- a/Project2/p5.xlsx
+++ b/Project2/p5.xlsx
@@ -9,22 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8925" tabRatio="366"/>
   </bookViews>
   <sheets>
     <sheet name="p5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>DPTime</t>
   </si>
   <si>
     <t>Greedy</t>
@@ -34,6 +31,21 @@
   </si>
   <si>
     <t>Greedy Time</t>
+  </si>
+  <si>
+    <t>DP Time</t>
+  </si>
+  <si>
+    <t>D = 5</t>
+  </si>
+  <si>
+    <t>D= 7</t>
+  </si>
+  <si>
+    <t>D = 7</t>
+  </si>
+  <si>
+    <t>D = 16</t>
   </si>
 </sst>
 </file>
@@ -4438,11 +4450,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="525916080"/>
-        <c:axId val="525913728"/>
+        <c:axId val="704995440"/>
+        <c:axId val="704997400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="525916080"/>
+        <c:axId val="704995440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4541,7 +4553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525913728"/>
+        <c:crossAx val="704997400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4549,7 +4561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525913728"/>
+        <c:axId val="704997400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4662,7 +4674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525916080"/>
+        <c:crossAx val="704995440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4743,7 +4755,6329 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Problem 7-5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'p5'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.60434459034371946"/>
+                  <c:y val="-9.4136007946868702E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'p5'!$A$203:$A$403</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2089</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2094</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'p5'!$B$2:$B$202</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>2.4148843813700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0789775862499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1733959432399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3545122718399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5356286004399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9319075051E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1130238337E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9319075051E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3545122718399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2941401623100001E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5356286004399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0526517241700002E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1733959432399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2941401623E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1130238337E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2337680527700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1733959432399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0526517241700002E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9319075051E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3545122718399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2337680527700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2941401623100001E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1130238337E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6300469574199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6904190669600002E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5960007099800002E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0789775862499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5619544625299997E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5882803246099997E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2337680527700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5619544625299997E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0186054767099999E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8978612576399998E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9582333671800001E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5356286004399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9582333671800001E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.9582333671800001E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5960007099800002E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.6223265720599999E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8978612576399998E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7771170385800001E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5960007099800002E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.65637281951E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.7771170385899999E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5960007099800002E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3808381339200003E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5960007099800002E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.41488438136E-5</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>1.4972283164499999E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0789775862499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5356286004399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6904190669600002E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.4412102434600002E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.65637281951E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4148843813700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.2600939148500002E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2337680527700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.7771170385800001E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.4148843813700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.2941401623100001E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7167449290499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.7771170385800001E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4148843813700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.9582333671800001E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.89786125766E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8715353955699999E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.93190750509E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.56967484789E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6904190669600002E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.56967484789E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.50930273836E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7507911765000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.56967484789E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8111632860299999E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8111632860299999E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.56967484789E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.99227961464E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.81116328604E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.81116328604E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.47525649091E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.5960007099800002E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.7167449290399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.8638150102099998E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.65637281951E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.3204660243799997E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.7771170385800001E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.8978612576399998E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3545122718399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.6826986815800003E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.76939665321E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.1997218053100003E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.92418711974E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.5356286004399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.8978612576399998E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.89786125767E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6904190669699999E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.7507911764799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6904190669699999E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.63004695743E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3885585193E-5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.44893062883E-5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.5696748479000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.1130238337100001E-5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.44893062883E-5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.5093027383700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.7167449290399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.3545122718399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.8715353955500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.44893062883E-5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.7507911765000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5093027383700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.63004695743E-5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.5696748479000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.44893062883E-5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7507911765000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.7507911765000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.63004695743E-5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.5093027383700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.99227961464E-5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.44893062883E-5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.5696748479000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.9319075051E-5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.81116328604E-5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.05265172415E-5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.5696748479000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.81116328604E-5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5093027383700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.63004695743E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.6904190669699999E-5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.1733959432399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.1130238337100001E-5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.8715353955500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.1733959432399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.9319075051E-5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.63004695743E-5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.44893062883E-5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.81116328604E-5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.5696748479000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.6904190669699999E-5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.8715353955699999E-5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.6904190669699999E-5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.6904190669699999E-5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.99227961464E-5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.5696748479000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.7507911764799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.9319075051E-5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.5093027383700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.44893062883E-5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.8111632860100001E-5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.5696748479199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.9922796146199998E-5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.8111632860100001E-5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.1130238337299999E-5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.7507911764799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.1393496958000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.59600071E-5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.8374891481300001E-5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.6300469574599998E-5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.7507911764799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.5696748479199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.1733959432600001E-5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.8715353955500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.9319075050799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.8111632860100001E-5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.5093027383900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.1733959432600001E-5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.5093027383900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.6300469574599998E-5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.8111632860600001E-5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.4752564908899999E-5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.7507911764799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'p5'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27301607943939882"/>
+                  <c:y val="-5.4919488831225625E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'p5'!$A$203:$A$403</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2089</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2094</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'p5'!$D$2:$D$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>1.02868037436E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0198310305399992E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1468503266699998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00247887882E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0458864255699999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0792335640000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2967011471900007E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.00513525164E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0032033441299999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0493880079299999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0356231669499999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0340534921E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0481805657299999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8406538541000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.00422966999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9994325021700008E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2701374190000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0307933981900001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2731560244700001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0717256884500001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0299481886599999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.01135357892E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3370224717100004E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4429115295000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.6047087830599996E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.4168416451600005E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2832912942199998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.7578160751599996E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3917232252700008E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.12756988977E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.20418209677E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8731268043700006E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.8888235528499998E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.4795006502099996E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.4022243500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.2190589920000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.2498487678700008E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0262051178600001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.2404270964499997E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.2413966725300002E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1224636167499999E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.5211574057900002E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.3943759757599996E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.01165543947E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6778616681800002E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.8203652029700003E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.5762240143300002E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.6054404930200005E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.2991160315699997E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.7877642638200006E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.9047581674399998E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.5456721045799999E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.2001057719399999E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.00513525164E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.03477795742E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.10227397588E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.11718588693E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0632132210100001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.2737597455699993E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0318800961600001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.7019078794099997E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.58092579423E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.5466416806600004E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0269899552900001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.2392196542600002E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5268287617599998E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6819850832600001E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.4833608428899996E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.9535496989200008E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.6974439656300004E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.4718901420799998E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.4693653804600007E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.6530064706799997E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.5081134077999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.4050050893699994E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.5352808570899997E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.9137041066300006E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.8684250244799997E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.5642594696700002E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.3790450822699997E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0860024849199993E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.03544205062E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0141306959599999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.029585956E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.08959583288E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.3947418307500007E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0650847563999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.0877846695900001E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.9570440366200004E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.02354874504E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.07003526939E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0429281922100001E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0243939545799999E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.16983036645E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.11187314129E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.07220866533E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.6421394909699999E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.60289761977E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.6886260153100003E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.5793524970500002E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.7523825852999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.5612408641900002E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.8051441867099998E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.0846670538500002E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.5890120345800003E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.9313218956400004E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.55761853762E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.5525509027399998E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.08543015732E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.8105776765699996E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.6071236674400003E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.8498195477599997E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.7562427779899997E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.7628837100399998E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.78461766947E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.7683171998899998E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.8395562891400002E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.7067376481700003E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.3154165011499999E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.7652985944199997E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.06840522243E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.6699106613500002E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.73933858732E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0976253234399999E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.0961763928100001E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.8021255812299999E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.6415357698699998E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.6964743895499999E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.9621116714999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.6602511238299999E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.8154074453300002E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.84800838448E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.6566287972499999E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.51608977091E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.946780778E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.6958706684499998E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.1136456664299998E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.8238595406600001E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.8425748946200002E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.7496018459400004E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.7791841796100002E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.5024420518300002E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.0428074479900001E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.7822027850900002E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.8184260508100001E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.71217113803E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.8599729291499998E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.02638623419E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.7091525325500001E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.2561238449299998E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.0768186796099997E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.7459795193700002E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7.4330141258700001E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.8093702343800001E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.7453757982700001E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.9226319341900008E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.7465832404599996E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.8800056025299997E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.8848353712900002E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.7840139483699999E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.0141596745699996E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.8522344321500003E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9.85393571819E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.7050544737499996E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.7689209209899999E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.8504232688599998E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.98143074655E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.7888437171400003E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.0852707749500003E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.7828065061800004E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.0164465700799997E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.0763139687800001E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.7954846491799998E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.7659023155099999E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8.4702069676700006E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.8099739554700004E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.4831229767799998E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.9546291522399996E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.7654265832899994E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.8582716431000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.9802233043599997E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.2283526745399998E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.5110221360399996E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.0261061075999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.83593396257E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.13650496198E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.0713851897599997E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.8347265203799997E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.9850530731200003E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.6600132577200001E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.8528381532399997E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.9560744605499996E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.4613890173499996E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.8763832759600003E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>7.1770363814399997E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.8474046633799999E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6.8582716431000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.0659516998999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6.8685349017199998E-3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.0019572637899999E-3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.3190388277200002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Greedy Time Set 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8514352397747082E-3"/>
+                  <c:y val="-4.8303377142189151E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'p5'!$A$203:$A$403</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2089</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2094</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'p5'!$B$203:$B$403</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>2.95823336716E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5696748479199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3281864097900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5093027383900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9319075050799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5696748479199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.69041906699E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3885585193199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.05265172415E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3281864097400001E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5696748479199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9922796146600001E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7507911764799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.26781430021E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5093027383900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3885585193199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5696748479199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3281864097400001E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1733959432600001E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6300469574599998E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7507911764799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.44893062886E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3281864097400001E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.3281864097400001E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.26781430021E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3885585193199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.26781430021E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3281864097900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3281864097400001E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.44893062886E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.26781430025E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.3885585193199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.44893062886E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.5093027383900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.3885585193199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.44893062886E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.56967484788E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3885585193199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.38855851928E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.05265172419E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3545122718200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.20744219068E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3281864097400001E-5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.05265172415E-5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.5093027383900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.3281864097900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.0186054766900001E-5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.2941401622799998E-5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.23376805275E-5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.7167449290700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.1393496957599999E-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.4148843814E-5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.6563728194899999E-5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.1733959432200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.3204660243600002E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.4148843814E-5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.53562860046E-5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.6563728195300001E-5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.2337680528E-5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.9241871196999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.2941401623299999E-5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.2941401623299999E-5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.6826986816100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.6563728195300001E-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.4752564909299998E-5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.6563728194899999E-5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.2941401622799998E-5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.9582333671999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.41488438135E-5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.4752564909299998E-5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.3545122718200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.6563728194899999E-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.41488438135E-5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.1130238337299999E-5</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>1.7024934888699999E-4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.1656755578800003E-5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.1393496958000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.4752564909299998E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.0186054767300001E-5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.5696748479199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.44893062881E-5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.8111632860600001E-5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.3281864097400001E-5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.7507911764799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.7507911764799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.7507911765199999E-5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.9922796146199998E-5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.3545122718200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.7167449290700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.6223265720700003E-5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.59600071E-5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.9505129818200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.5356286004200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.9845592292799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.59600071E-5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.3545122718600001E-5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.6826986816100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.7771170385499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.5960007099499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.5696748479699999E-5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.05265172415E-5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.38855851937E-5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.6904190669500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.5093027383499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5.3127456390600003E-5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.1733959432200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.5696748479699999E-5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.3204660244499999E-5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.5960007100399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.05265172415E-5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.23376805284E-5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.1130238336799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.87153539564E-5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.8715353955500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.8715353955500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4.2864197768999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.3545122718200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.95823336716E-5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.23376805275E-5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.2941401622799998E-5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.1733959432200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.05265172415E-5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.1733959432200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.9922796146199998E-5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.05265172415E-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.1733959433100001E-5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.1130238336799999E-5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.8715353955500001E-5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.23376805275E-5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.6300469574100002E-5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.5960007100399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.5960007100399999E-5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.1393496958500002E-5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.4752564909700001E-5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.5356286004200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.3545122718200001E-5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.8374891480899998E-5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.8297687627900002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DP Time 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.38343311685358228"/>
+                  <c:y val="5.7590421208787573E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'p5'!$A$203:$A$403</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2057</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2059</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2068</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2089</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2094</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'p5'!$D$203:$D$403</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>5.4588461440900002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6650808925899996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1322330315100003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2603498926000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2771260944E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2493549240099999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2722963256299996E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1654376917600001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1600042019000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.16483397066E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0640125477399997E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4052429554800001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0459009148799997E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5981958398800001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2493549240099999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.05012696255E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0905762759299996E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.04046742502E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0416748672100003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0760869696499997E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0519381258299998E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0748795274600002E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1491372221799999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0730683641699997E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0990283712700002E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.1074804666000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.08635022827E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1195548885100001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0966134868900004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3000674960199997E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0676348743099999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.28473660252E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0785018540300004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.1594004808000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1002358134599997E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.2807484209700002E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0893688337400001E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1080841877000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0996320923599996E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.1334404736999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0839353438900002E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.1322330315100003E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.5566489615400004E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.1255920994600001E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.3483651836499996E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.1123102353699997E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4274526471399997E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.3145568023100003E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.66109271103E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.1328367526100004E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.78847786215E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1189511674199998E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0142695518099996E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2306395700499999E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.2692777201600004E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.24995864511E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.2141012343699996E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3260275031200002E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.7151897435000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.1418925690400004E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3888144970300001E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.1394776846599996E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.9198511948199998E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.1521558276599998E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.3082817252399998E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.1443074534200002E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.3725140274599997E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.1612116440899998E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.5777791998800003E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.1654376917600001E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.4721280081899996E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.2872794757800003E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.1763046714699999E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.2340240305100002E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.1938125832399996E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.4304712526099998E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.1913976988599998E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.2602219037300004E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.1871716511900003E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.5277983378400004E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.2547884138699997E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.3441391359800002E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.2656553935800003E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.3091233124499997E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.3145568023100003E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.4256414838500001E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.3061047069699998E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.59686040882E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.2233949169100003E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.4413382323300003E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.2306395700499999E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.8099739554700004E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.21313165829E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.35718313396E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.2197725903400001E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.7631215761499996E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.2294321278600004E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.2879930741099998E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.2288284067700001E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.2547884138699997E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.2209800325299996E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.2348656177200002E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.4346973002800001E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.2970488905399998E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.6189602232299997E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.2272732212300007E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.0307933981900001E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.1097854737500006E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.8769869970499997E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.1323610203899998E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.19307362862E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.0908322536800007E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.5824990914000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.9909804068399992E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.0559263073900003E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.6968402445300003E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.4728597181600003E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.9839736198000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.9463050457800004E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.9757593905799996E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.08808653014E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.6038671958499997E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.7991069757599998E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.9842114859099995E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.6126851461699998E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.0436140193699997E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.1264517982999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.7207512222300006E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7.0894968226199997E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.8142000031399998E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.8018877151200001E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.2477997384699997E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.4116460214199995E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.8086566360400008E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.1810245629999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.1804208419000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.2681982668399998E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8.3096171563000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.4984538702699997E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.5850238530199998E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.3658730954100004E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.9472565102300003E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.3670805375999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8.4533027770000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.4449605588999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.3954554290800002E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.0197030416700003E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.25370896055E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8.9175642993200004E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.0512245274999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.17876543866E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.4909713510200003E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8.9429205853200008E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.2989880427E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9.1705234382599993E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.8703460650100003E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.7659023155099999E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.4746708814400001E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.17002959441E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8.8958303398799995E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.08718094849E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5.4425456745199998E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8.1043519838899999E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.5252554645800001E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.4473754432800003E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.0734342191500002E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5.4171893885200002E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5.4588461440900002E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5.3978703134600001E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.6099044067999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.3722761613499998E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.4194943956599991E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9.0069150214299992E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9.1403373834999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.2176136837000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8.9012638297400002E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9.66315985206E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.0781541106799996E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9.1995020508400006E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.2707411400899994E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.2363290376599998E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.4531747881199997E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.2508183439499996E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8.8270061350099998E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.9043923124600002E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.9383286826700001E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8.9380908165599994E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9.3057569636199999E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.3775997739699996E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.7994728307400002E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>8.9054898774099996E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9.2556481127099993E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.6846378337499998E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.7840139483699999E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.8408917202099993E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7.6944253601499996E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.3522434879600002E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6.5153580609400002E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>8.8155354342E-3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.27919323543E-3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.7998386857200007E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="527126016"/>
+        <c:axId val="527129152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="527126016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Amount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527129152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="527129152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (secs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527126016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Problem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 8</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Greedy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2072581367247707E-3"/>
+                  <c:y val="-5.1671884387945483E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'p5'!$A$419:$A$422</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'p5'!$B$419:$B$422</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.05E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6249999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1860110109000989E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0599999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5459981222313725E-4"/>
+                  <c:y val="-5.5224572832010453E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'p5'!$A$419:$A$422</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'p5'!$C$419:$C$422</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.6730000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1520000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>8.2454875587592031E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="293236808"/>
+        <c:axId val="293236024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="293236808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Denominations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44466404383253333"/>
+              <c:y val="0.94539164532144326"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293236024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="293236024"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293236808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5299,6 +11633,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5326,6 +12692,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>585786</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5597,10 +13023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E403"/>
+  <dimension ref="A1:E422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S425" sqref="S425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5610,16 +13036,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12454,6 +19880,122 @@
       </c>
       <c r="E403">
         <v>18</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1</v>
+      </c>
+      <c r="C407" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <f>AVERAGE(B203:B403)</f>
+        <v>2.0547542354466176E-5</v>
+      </c>
+      <c r="C409">
+        <f>AVERAGE(D203:D403)</f>
+        <v>6.6725057609864679E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>1.6249999999999999E-5</v>
+      </c>
+      <c r="C410">
+        <v>6.1520000000000004E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <f>AVERAGE(B2:B202)</f>
+        <v>2.1860110109000989E-5</v>
+      </c>
+      <c r="C412" s="1">
+        <f>AVERAGE(D2:D202)</f>
+        <v>8.2454875587592031E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>2.0599999999999999E-5</v>
+      </c>
+      <c r="C415" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>5</v>
+      </c>
+      <c r="B419" s="1">
+        <v>2.05E-5</v>
+      </c>
+      <c r="C419">
+        <v>6.6730000000000001E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>5</v>
+      </c>
+      <c r="B420" s="1">
+        <f>A410</f>
+        <v>1.6249999999999999E-5</v>
+      </c>
+      <c r="C420">
+        <v>6.1520000000000004E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>7</v>
+      </c>
+      <c r="B421" s="1">
+        <f>A412</f>
+        <v>2.1860110109000989E-5</v>
+      </c>
+      <c r="C421" s="1">
+        <f>C412</f>
+        <v>8.2454875587592031E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>16</v>
+      </c>
+      <c r="B422" s="1">
+        <f>A415</f>
+        <v>2.0599999999999999E-5</v>
+      </c>
+      <c r="C422" s="1">
+        <v>1.4200000000000001E-2</v>
       </c>
     </row>
   </sheetData>
